--- a/REVER_DailyTracker_20200727.xlsx
+++ b/REVER_DailyTracker_20200727.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD78BFC-158E-4AA0-AEC9-3E622BE669C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C356B5C-AC9D-4430-93CD-7B21F3DDCA11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="96">
   <si>
     <t>Task</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t xml:space="preserve">2. RPA Training has been handled </t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Active Report issue</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +401,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -473,10 +487,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -515,9 +532,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{97F23456-32CA-46C0-BDC8-367B24C6496D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -832,22 +854,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -868,7 +890,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -878,8 +900,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -891,7 +913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -902,10 +924,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -919,9 +941,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -935,9 +957,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -951,8 +973,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -969,19 +991,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -999,13 +1021,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1033,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +1063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1049,12 +1071,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1062,7 +1084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1095,12 +1117,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1122,12 +1144,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1159,12 +1181,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1172,7 +1194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1188,7 +1210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1196,12 +1218,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1209,7 +1231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1217,7 +1239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1225,7 +1247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +1255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1241,12 +1263,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1270,7 +1292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1286,12 +1308,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1323,7 +1345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1353,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1339,7 +1361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1347,12 +1369,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1368,12 +1390,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1381,22 +1403,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1404,7 +1426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1412,7 +1434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1442,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1428,12 +1450,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1463,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1457,17 +1479,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1475,7 +1497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1483,17 +1505,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1501,7 +1523,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
@@ -1521,18 +1543,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1564,7 +1586,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1573,46 +1595,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1629,22 +1651,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1667,16 +1689,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44039</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1685,46 +1715,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1745,18 +1775,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1788,7 +1818,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1797,46 +1827,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1857,18 +1887,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1900,7 +1930,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1909,46 +1939,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1969,18 +1999,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2003,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2024,7 +2054,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2033,46 +2063,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2093,18 +2123,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2136,7 +2166,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2145,46 +2175,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2205,18 +2235,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2248,7 +2278,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2257,46 +2287,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2317,18 +2347,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2351,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2360,7 +2390,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2369,46 +2399,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2429,18 +2459,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2463,7 +2493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2472,7 +2502,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2481,46 +2511,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200727.xlsx
+++ b/REVER_DailyTracker_20200727.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C356B5C-AC9D-4430-93CD-7B21F3DDCA11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF1CC47-2AFB-44AB-A382-BBFFC8CB229F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="98">
   <si>
     <t>Task</t>
   </si>
@@ -371,6 +365,12 @@
   </si>
   <si>
     <t>Active Report issue</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>PR Summary correction</t>
   </si>
 </sst>
 </file>
@@ -858,15 +858,15 @@
       <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -901,7 +901,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -927,7 +927,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -959,7 +959,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1218,12 +1218,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1543,15 +1543,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1651,19 +1651,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1775,15 +1775,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1883,19 +1883,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1924,8 +1924,12 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
@@ -1999,15 +2003,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2123,15 +2127,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2235,15 +2239,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2347,15 +2351,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2459,15 +2463,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
